--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agt-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agt-Agtr2.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02619133333333333</v>
+        <v>0.07702833333333334</v>
       </c>
       <c r="H2">
-        <v>0.078574</v>
+        <v>0.231085</v>
       </c>
       <c r="I2">
-        <v>0.00783286589743605</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="J2">
-        <v>0.007832865897436052</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +558,22 @@
         <v>6.007243</v>
       </c>
       <c r="O2">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="P2">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="Q2">
-        <v>0.05244590127577778</v>
+        <v>0.1542426387394444</v>
       </c>
       <c r="R2">
-        <v>0.472013111482</v>
+        <v>1.388183748655</v>
       </c>
       <c r="S2">
-        <v>0.006404356617653918</v>
+        <v>0.01613006249485526</v>
       </c>
       <c r="T2">
-        <v>0.00640435661765392</v>
+        <v>0.01613006249485526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02619133333333333</v>
+        <v>0.07702833333333334</v>
       </c>
       <c r="H3">
-        <v>0.078574</v>
+        <v>0.231085</v>
       </c>
       <c r="I3">
-        <v>0.00783286589743605</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="J3">
-        <v>0.007832865897436052</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.446644</v>
+        <v>0.8019933333333333</v>
       </c>
       <c r="N3">
-        <v>1.339932</v>
+        <v>2.40598</v>
       </c>
       <c r="O3">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="P3">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="Q3">
-        <v>0.01169820188533333</v>
+        <v>0.06177620981111111</v>
       </c>
       <c r="R3">
-        <v>0.105283816968</v>
+        <v>0.5559858883000001</v>
       </c>
       <c r="S3">
-        <v>0.001428509279782132</v>
+        <v>0.006460302631568569</v>
       </c>
       <c r="T3">
-        <v>0.001428509279782132</v>
+        <v>0.006460302631568569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>9.829259</v>
       </c>
       <c r="I4">
-        <v>0.9798567925543612</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="J4">
-        <v>0.9798567925543613</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>6.007243</v>
       </c>
       <c r="O4">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="P4">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="Q4">
         <v>6.560749702548556</v>
@@ -694,10 +694,10 @@
         <v>59.046747322937</v>
       </c>
       <c r="S4">
-        <v>0.8011566157161955</v>
+        <v>0.6860962933471171</v>
       </c>
       <c r="T4">
-        <v>0.8011566157161956</v>
+        <v>0.6860962933471171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>9.829259</v>
       </c>
       <c r="I5">
-        <v>0.9798567925543612</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="J5">
-        <v>0.9798567925543613</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.446644</v>
+        <v>0.8019933333333333</v>
       </c>
       <c r="N5">
-        <v>1.339932</v>
+        <v>2.40598</v>
       </c>
       <c r="O5">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="P5">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="Q5">
-        <v>1.463393185598667</v>
+        <v>2.627666729868889</v>
       </c>
       <c r="R5">
-        <v>13.170538670388</v>
+        <v>23.64900056882</v>
       </c>
       <c r="S5">
-        <v>0.1787001768381657</v>
+        <v>0.2747906085815567</v>
       </c>
       <c r="T5">
-        <v>0.1787001768381658</v>
+        <v>0.2747906085815567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.04116300000000001</v>
+        <v>0.056339</v>
       </c>
       <c r="H6">
-        <v>0.123489</v>
+        <v>0.169017</v>
       </c>
       <c r="I6">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="J6">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>6.007243</v>
       </c>
       <c r="O6">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="P6">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="Q6">
-        <v>0.08242538120300001</v>
+        <v>0.1128140211256667</v>
       </c>
       <c r="R6">
-        <v>0.7418284308270001</v>
+        <v>1.015326190131</v>
       </c>
       <c r="S6">
-        <v>0.01006525815610081</v>
+        <v>0.01179762759457754</v>
       </c>
       <c r="T6">
-        <v>0.01006525815610081</v>
+        <v>0.01179762759457754</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.04116300000000001</v>
+        <v>0.056339</v>
       </c>
       <c r="H7">
-        <v>0.123489</v>
+        <v>0.169017</v>
       </c>
       <c r="I7">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="J7">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.446644</v>
+        <v>0.8019933333333333</v>
       </c>
       <c r="N7">
-        <v>1.339932</v>
+        <v>2.40598</v>
       </c>
       <c r="O7">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="P7">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="Q7">
-        <v>0.018385206972</v>
+        <v>0.04518350240666667</v>
       </c>
       <c r="R7">
-        <v>0.165466862748</v>
+        <v>0.40665152166</v>
       </c>
       <c r="S7">
-        <v>0.002245083392101912</v>
+        <v>0.004725105350324879</v>
       </c>
       <c r="T7">
-        <v>0.002245083392101913</v>
+        <v>0.004725105350324879</v>
       </c>
     </row>
   </sheetData>
